--- a/similarities/split_global/harmonic_similarity_timestamps_223.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_223.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,690 +484,738 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>isophonics_92</t>
+          <t>schubert-winterreise_21</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_200</t>
+          <t>schubert-winterreise_114</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['B:7', 'E:7', 'A']]</t>
+          <t>['D#:min', 'A#:maj', 'D#:min']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['F#:7/A#', 'B:7/A', 'E:maj/G#']]</t>
+          <t>['D:min', 'A:maj', 'D:min']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:22.622607', '0:00:29.751133')]</t>
+          <t>('0:00:02.660000', '0:00:07.980000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:51.080000', '0:00:57.700000')]</t>
+          <t>('0:01:25.580000', '0:01:34.240000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-92#t=22.622607']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-21#t=2.66</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-200#t=51.08']</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:7HTH1ppjkkOe7RLoBDKXYJ</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-114#t=85.58</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_15</t>
+          <t>schubert-winterreise_34</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_202</t>
+          <t>isophonics_1</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['C', 'F', 'C']]</t>
+          <t>['G#/C', 'D#', 'G#']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['F:maj/A', 'A#:maj', 'F:maj/C']]</t>
+          <t>['Ab/5', 'Eb', 'Ab/5']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:01:04.514625', '0:01:27.246961')]</t>
+          <t>('0:00:48.600000', '0:00:53')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:01:01.480000', '0:01:03.580000')]</t>
+          <t>('0:00:18.978000', '0:00:24.727000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-15#t=64.514625']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-34#t=48.6</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-202#t=61.48']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-1#t=18.978</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_123</t>
+          <t>schubert-winterreise_59</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_211</t>
+          <t>isophonics_291</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['C:maj/F', 'F:min', 'C:maj/F', 'F:min', 'C:maj/F', 'F:min']]</t>
+          <t>['E:maj/G#', 'A:maj', 'E:maj']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min']]</t>
+          <t>['D', 'G', 'D']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:34.380000', '0:00:52.440000')]</t>
+          <t>('0:00:59.220000', '0:01:06.880000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:00.240000', '0:00:07.820000')]</t>
+          <t>('0:00:03.044470', '0:00:11.035850')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-123#t=34.38']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-59#t=59.22</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-211#t=0.24']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-291#t=3.04447</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:06ypiqmILMdVeaiErMFA91</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_186</t>
+          <t>jaah_55</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_192</t>
+          <t>schubert-winterreise_131</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:maj', 'F:min']]</t>
+          <t>['C', 'F', 'C']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['F:min/C', 'C', 'F:min/C']]</t>
+          <t>['G:maj/B', 'C:maj', 'G:maj/D']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:00.240000', '0:00:05.080000')]</t>
+          <t>('0:00:34.410000', '0:00:39.540000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:47.680000', '0:00:51.980000')]</t>
+          <t>('0:01:01.320000', '0:01:03.700000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-186#t=0.24']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-55#t=34.41</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-192#t=47.68']</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-131#t=61.32</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>isophonics_133</t>
+          <t>jaah_55</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>jaah_29</t>
+          <t>isophonics_48</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['D/3', 'G', 'D']]</t>
+          <t>['C', 'F', 'C']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['Ab', 'Db', 'Ab']]</t>
+          <t>['A', 'D', 'A']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:57.251357', '0:01:13.909779')]</t>
+          <t>('0:00:34.410000', '0:00:39.540000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:01:56.690000', '0:02:02.570000')]</t>
+          <t>('0:01:22.290863', '0:01:33.575761')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-133#t=57.251357']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-55#t=34.41</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-29#t=116.69']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-48#t=82.290863</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_5</t>
+          <t>isophonics_108</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_97</t>
+          <t>schubert-winterreise_78</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E']]</t>
+          <t>['A', 'D', 'A']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>['D:maj', 'G:maj', 'D:maj/F#']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:09.162102', '0:00:14.073123')]</t>
+          <t>('0:00:01.829138', '0:00:15.586961')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:01:09.360000', '0:01:13.200000')]</t>
+          <t>('0:01:00.760000', '0:01:04.360000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-5#t=9.162102']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-108#t=1.829138</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-97#t=69.36']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-78#t=60.76</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_235</t>
+          <t>schubert-winterreise_213</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_10</t>
+          <t>schubert-winterreise_156</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['Bb', 'F', 'Bb'], ['F', 'Bb', 'Eb:7']]</t>
+          <t>['A:min', 'E:7/G#', 'A:min']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:maj', 'C:maj'], ['G:maj', 'C:maj', 'F:7']]</t>
+          <t>['F#:min', 'C#:7', 'F#:min']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:26.041712', '0:00:37.106020'), ('0:00:27.910918', '0:00:40.797993')]</t>
+          <t>('0:00:42.940000', '0:00:51.080000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:09.920000', '0:00:11.960000'), ('0:00:14.660000', '0:00:19')]</t>
+          <t>('0:00:03.320000', '0:00:08.680000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-235#t=26.041712', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-235#t=27.910918']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-213#t=42.94</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-10#t=9.92', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-10#t=14.66']</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-156#t=3.32</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_113</t>
+          <t>schubert-winterreise_200</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_47</t>
+          <t>schubert-winterreise_48</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:min/C', 'F:min'], ['F:min', 'C:7', 'F:min'], ['F:maj/C', 'C:7', 'F:min/C']]</t>
+          <t>['E:maj', 'B:7', 'E:maj']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['A:7', 'D:min', 'D:min/A'], ['D:min', 'A:7/E', 'D:min'], ['D:maj/A', 'A:7', 'D:min']]</t>
+          <t>['F:maj/C', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:34.560000', '0:00:36.420000'), ('0:00:08.300000', '0:00:12.960000'), ('0:00:34.340000', '0:00:35.880000')]</t>
+          <t>('0:00:01.340000', '0:00:08.860000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:23.600000', '0:00:40.320000'), ('0:00:00.360000', '0:00:05.600000'), ('0:00:47.140000', '0:00:55.200000')]</t>
+          <t>('0:00:59.500000', '0:01:08.120000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-113#t=34.56', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-113#t=8.3', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-113#t=34.34']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-200#t=1.34</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-47#t=23.6', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-47#t=0.36', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-47#t=47.14']</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-48#t=59.5</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isophonics_53</t>
+          <t>jaah_20</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>isophonics_194</t>
+          <t>jaah_73</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['D', 'A', 'E'], ['A', 'D', 'A']]</t>
+          <t>['Bb:7', 'Eb', 'G:7', 'C:7', 'F:7']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['G', 'D', 'A'], ['D', 'G', 'D']]</t>
+          <t>['F:7', 'Bb', 'D:7', 'G:7', 'C:7']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:43.076000', '0:00:50.260000'), ('0:00:40.490000', '0:00:47.860000')]</t>
+          <t>('0:00:15.840000', '0:00:34.940000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:59.205240', '0:01:06.101566'), ('0:02:24.085784', '0:02:29.240614')]</t>
+          <t>('0:00:19.570000', '0:00:26')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-53#t=43.076', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-53#t=40.49']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-20#t=15.84</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-194#t=59.20524', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-194#t=144.085784']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-73#t=19.57</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_148</t>
+          <t>schubert-winterreise_44</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_89</t>
+          <t>schubert-winterreise_185</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7', 'G:maj']]</t>
+          <t>['A#:min', 'D#:min', 'A#:min/F']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'D:7', 'G:maj']]</t>
+          <t>['B:min', 'E:min/B', 'B:min']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:08.080000', '0:00:19.060000')]</t>
+          <t>('0:00:08.400000', '0:00:12.140000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:18.800000', '0:00:21.340000')]</t>
+          <t>('0:00:28.800000', '0:00:36.860000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-148#t=8.08']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-44#t=8.4</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-89#t=18.8']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-185#t=28.8</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_128</t>
+          <t>schubert-winterreise_156</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_136</t>
+          <t>schubert-winterreise_109</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['C', 'F', 'C', 'F', 'G', 'C']]</t>
+          <t>['F#:min', 'C#:7', 'F#:min']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['A', 'D/5', 'A', 'D/5', 'E/4', 'A']]</t>
+          <t>['D:min', 'A:7/E', 'D:min']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:10.634761', '0:00:23.115487')]</t>
+          <t>('0:00:03.320000', '0:00:08.680000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:02.959000', '0:00:09.340000')]</t>
+          <t>('0:00:01.540000', '0:00:06.880000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-128#t=10.634761']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-156#t=3.32</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-136#t=2.959']</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-109#t=1.54</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_193</t>
+          <t>jaah_7</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>jaah_78</t>
+          <t>schubert-winterreise_128</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['C/G', 'G:7', 'C']]</t>
+          <t>['Eb', 'F:min7', 'Bb:7']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['Bb', 'F:7', 'Bb']]</t>
+          <t>['G:maj/D', 'A:min7/C', 'D:7']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:04:11.500000', '0:04:17.660000')]</t>
+          <t>('0:00:09.530000', '0:00:14.240000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:49.560000', '0:00:55.720000')]</t>
+          <t>('0:01:13.160000', '0:01:17.720000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-193#t=251.5']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-7#t=9.53</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-78#t=49.56']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-128#t=73.16</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_196</t>
+          <t>schubert-winterreise_111</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>jaah_39</t>
+          <t>isophonics_279</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['G/5', 'G:min/5', 'D'], ['D', 'G/5', 'D']]</t>
+          <t>['C:maj/E', 'G:maj/D', 'A:min7/C']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['Db', 'Db:min', 'Ab'], ['Ab', 'Db', 'Ab']]</t>
+          <t>['F/5', 'C:maj', 'D:min7/b7']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:01:26.291723', '0:01:33.397029'), ('0:00:12.707687', '0:00:25.501882')]</t>
+          <t>('0:01:03.180000', '0:01:06.100000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:02:09.120000', '0:02:11.120000'), ('0:02:03.030000', '0:02:09.120000')]</t>
+          <t>('0:00:04.555000', '0:00:10.619000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-196#t=86.291723', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-196#t=12.707687']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-111#t=63.18</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-39#t=129.12', 'https://soundcloud.com/jacopo-de-berardinis/jaah-39#t=123.03']</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-279#t=4.555</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
       <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_10</t>
+          <t>schubert-winterreise_153</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_191</t>
+          <t>jaah_6</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['C', 'G/3', 'A:min']]</t>
+          <t>['G:maj/D', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['B', 'Gb', 'Ab:min']]</t>
+          <t>['Eb', 'Bb:7', 'Eb']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:37.763000', '0:00:44.547000')]</t>
+          <t>('0:01:00.120000', '0:01:01.360000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:17.850907', '0:00:25.943061')]</t>
+          <t>('0:00:14.300000', '0:00:15.210000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-10#t=37.763']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-153#t=60.12</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-191#t=17.850907']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-6#t=14.3</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_210</t>
+          <t>schubert-winterreise_66</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_203</t>
+          <t>schubert-winterreise_41</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7/G', 'G:min']]</t>
+          <t>['C:min/G', 'G', 'C:min']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
+          <t>['B:min', 'F#:maj/A#', 'B:min']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:16.580000', '0:00:22.660000')]</t>
+          <t>('0:00:12.280000', '0:00:19.740000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:43.180000', '0:00:45.100000')]</t>
+          <t>('0:00:11.160000', '0:00:16.300000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-210#t=16.58']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-66#t=12.28</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-203#t=43.18']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-41#t=11.16</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
